--- a/src/test/java/resources/Capitals.xlsx
+++ b/src/test/java/resources/Capitals.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TechProEd\IdeaProjects\B129SeleniumMavenJunit2\src\test\java\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo\IdeaProjects\Batch129SeleniumMavenJunit\src\test\java\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DA98AA9-95A8-4F6D-A323-18A766E34A4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A645EE15-A975-4DE3-AFE5-3A4B5B590C5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -357,12 +357,12 @@
   <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C1048576"/>
+      <selection activeCell="C8" sqref="C1:C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="12.5546875" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -370,7 +370,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -378,7 +378,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
@@ -386,7 +386,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
@@ -394,7 +394,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>8</v>
       </c>
@@ -402,7 +402,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>10</v>
       </c>
@@ -410,7 +410,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>12</v>
       </c>
@@ -418,7 +418,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>14</v>
       </c>
@@ -426,7 +426,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>16</v>
       </c>
@@ -434,7 +434,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>18</v>
       </c>
@@ -442,7 +442,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>20</v>
       </c>
@@ -463,7 +463,7 @@
       <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
